--- a/data/regions_data.xlsx
+++ b/data/regions_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osoki\DOCUME~1\MobaXterm\slash\RemoteFiles\67670_3_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Дата</t>
   </si>
@@ -115,6 +120,9 @@
     <t>Мурманская область</t>
   </si>
   <si>
+    <t>Ненецкий АО</t>
+  </si>
+  <si>
     <t>Ненецкий автономный округ</t>
   </si>
   <si>
@@ -151,6 +159,9 @@
     <t>Республика Адыгея</t>
   </si>
   <si>
+    <t>Республика Алтай</t>
+  </si>
+  <si>
     <t>Республика Башкортостан</t>
   </si>
   <si>
@@ -277,6 +288,12 @@
     <t>Ярославская область</t>
   </si>
   <si>
+    <t>г. Севастополь</t>
+  </si>
+  <si>
+    <t>г.Севастополь</t>
+  </si>
+  <si>
     <t>20-03-25</t>
   </si>
   <si>
@@ -353,13 +370,49 @@
   </si>
   <si>
     <t>20-04-19</t>
+  </si>
+  <si>
+    <t>20-04-20</t>
+  </si>
+  <si>
+    <t>20-04-21</t>
+  </si>
+  <si>
+    <t>20-04-22</t>
+  </si>
+  <si>
+    <t>20-04-23</t>
+  </si>
+  <si>
+    <t>20-04-24</t>
+  </si>
+  <si>
+    <t>20-04-25</t>
+  </si>
+  <si>
+    <t>20-04-26</t>
+  </si>
+  <si>
+    <t>20-04-27</t>
+  </si>
+  <si>
+    <t>20-04-28</t>
+  </si>
+  <si>
+    <t>20-04-29</t>
+  </si>
+  <si>
+    <t>20-04-30</t>
+  </si>
+  <si>
+    <t>20-05-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,10 +423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,6 +472,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -709,14 +767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BE25" workbookViewId="0">
+      <selection activeCell="BK40" sqref="BK40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,10 +1038,22 @@
       <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1079,9 +1151,6 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
       <c r="AI2">
         <v>0</v>
       </c>
@@ -1161,17 +1230,17 @@
         <v>0</v>
       </c>
       <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>658</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>248</v>
       </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
       <c r="BM2">
         <v>0</v>
       </c>
@@ -1241,10 +1310,16 @@
       <c r="CI2">
         <v>0</v>
       </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1342,9 +1417,6 @@
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
       <c r="AI3">
         <v>0</v>
       </c>
@@ -1352,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1367,28 +1439,28 @@
         <v>0</v>
       </c>
       <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>5</v>
       </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
       <c r="AR3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1409,70 +1481,70 @@
         <v>0</v>
       </c>
       <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
         <v>4</v>
       </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>3</v>
-      </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
         <v>182</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>46</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
       <c r="BM3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
         <v>5</v>
       </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
       <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>7</v>
       </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
       <c r="BT3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -1481,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -1504,10 +1576,16 @@
       <c r="CI3">
         <v>0</v>
       </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1605,9 +1683,6 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
       <c r="AI4">
         <v>0</v>
       </c>
@@ -1624,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1648,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -1663,49 +1738,49 @@
         <v>0</v>
       </c>
       <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
         <v>12</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>2</v>
-      </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
         <v>196</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>39</v>
       </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
       <c r="BM4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1732,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA4">
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -1753,24 +1828,30 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH4">
         <v>0</v>
       </c>
       <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1868,54 +1949,51 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
       <c r="AI5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>6</v>
       </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
       <c r="AX5">
         <v>0</v>
       </c>
@@ -1926,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1941,52 +2019,52 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>228</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>114</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
       <c r="BM5">
         <v>0</v>
       </c>
       <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
         <v>11</v>
       </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
         <v>4</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>4</v>
       </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
       <c r="BT5">
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -1995,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -2013,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
         <v>4</v>
       </c>
-      <c r="CE5">
-        <v>2</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
       <c r="CG5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2030,10 +2108,16 @@
       <c r="CI5">
         <v>0</v>
       </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2131,33 +2215,30 @@
       <c r="AG6">
         <v>2</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>5</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
       <c r="AQ6">
         <v>0</v>
       </c>
@@ -2168,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2186,25 +2267,25 @@
         <v>0</v>
       </c>
       <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>4</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -2213,29 +2294,29 @@
         <v>0</v>
       </c>
       <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>270</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>73</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
         <v>5</v>
       </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
       <c r="BQ6">
         <v>0</v>
       </c>
@@ -2255,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -2267,36 +2348,42 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>3</v>
+      </c>
+      <c r="CG6">
         <v>4</v>
       </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
       <c r="CH6">
         <v>0</v>
       </c>
       <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2394,9 +2481,6 @@
       <c r="AG7">
         <v>2</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
       <c r="AI7">
         <v>0</v>
       </c>
@@ -2404,64 +2488,64 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>5</v>
       </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
       <c r="AX7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
         <v>15</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>2</v>
-      </c>
       <c r="BC7">
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -2473,34 +2557,34 @@
         <v>0</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
         <v>302</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>90</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>2</v>
-      </c>
       <c r="BM7">
         <v>0</v>
       </c>
       <c r="BN7">
+        <v>2</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
         <v>8</v>
       </c>
-      <c r="BO7">
-        <v>2</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR7">
         <v>0</v>
@@ -2509,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -2527,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -2539,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE7">
         <v>0</v>
       </c>
       <c r="CF7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -2556,10 +2640,16 @@
       <c r="CI7">
         <v>0</v>
       </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2657,14 +2747,11 @@
       <c r="AG8">
         <v>6</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2679,49 +2766,49 @@
         <v>0</v>
       </c>
       <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
         <v>5</v>
       </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
         <v>6</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>9</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2730,47 +2817,47 @@
         <v>0</v>
       </c>
       <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <v>5</v>
       </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
       <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>501</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>114</v>
       </c>
-      <c r="BK8">
-        <v>3</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
       <c r="BM8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
         <v>48</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
       <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
         <v>9</v>
       </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
       <c r="BT8">
         <v>0</v>
       </c>
@@ -2787,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="BY8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
         <v>0</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -2819,10 +2906,16 @@
       <c r="CI8">
         <v>0</v>
       </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2920,9 +3013,6 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
@@ -2930,106 +3020,106 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>4</v>
       </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
         <v>4</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <v>6</v>
       </c>
-      <c r="AV9">
-        <v>2</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
       <c r="AX9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
         <v>32</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF9">
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH9">
         <v>0</v>
       </c>
       <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
         <v>440</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>173</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
       <c r="BM9">
         <v>0</v>
       </c>
       <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
         <v>27</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>11</v>
       </c>
-      <c r="BP9">
-        <v>1</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
       <c r="BR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9">
         <v>0</v>
@@ -3038,43 +3128,43 @@
         <v>0</v>
       </c>
       <c r="BU9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
         <v>5</v>
       </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
       <c r="CA9">
         <v>0</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD9">
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <v>3</v>
+      </c>
+      <c r="CF9">
         <v>7</v>
       </c>
-      <c r="CE9">
-        <v>1</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
       <c r="CG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9">
         <v>0</v>
@@ -3082,10 +3172,16 @@
       <c r="CI9">
         <v>0</v>
       </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3183,62 +3279,59 @@
       <c r="AG10">
         <v>4</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>13</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
         <v>5</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>7</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
       <c r="AR10">
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
         <v>5</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>10</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
       <c r="AY10">
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3250,62 +3343,62 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF10">
         <v>0</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH10">
         <v>0</v>
       </c>
       <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
         <v>771</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>176</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>4</v>
       </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>2</v>
-      </c>
       <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>2</v>
+      </c>
+      <c r="BP10">
         <v>22</v>
       </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
       <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
         <v>5</v>
       </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
       <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
         <v>5</v>
       </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
       <c r="BW10">
         <v>0</v>
       </c>
@@ -3340,15 +3433,21 @@
         <v>0</v>
       </c>
       <c r="CH10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI10">
         <v>0</v>
       </c>
+      <c r="CJ10">
+        <v>2</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3446,9 +3545,6 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
         <v>0</v>
       </c>
@@ -3468,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
         <v>11</v>
       </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -3486,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -3495,22 +3591,22 @@
         <v>1</v>
       </c>
       <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
         <v>5</v>
       </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
       <c r="BA11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -3519,46 +3615,46 @@
         <v>0</v>
       </c>
       <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
         <v>6</v>
       </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
       <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
         <v>601</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>153</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>1</v>
-      </c>
       <c r="BM11">
         <v>0</v>
       </c>
       <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
         <v>9</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>4</v>
       </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>1</v>
-      </c>
       <c r="BR11">
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3567,51 +3663,57 @@
         <v>0</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11">
         <v>0</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
         <v>5</v>
       </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>1</v>
+      </c>
+      <c r="CE11">
         <v>8</v>
       </c>
-      <c r="CD11">
-        <v>2</v>
-      </c>
-      <c r="CE11">
-        <v>2</v>
-      </c>
       <c r="CF11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
         <v>10</v>
       </c>
-      <c r="CI11">
+      <c r="CK11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3709,9 +3811,6 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
       <c r="AI12">
         <v>0</v>
       </c>
@@ -3722,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -3743,20 +3842,20 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>4</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
       <c r="AX12">
         <v>0</v>
       </c>
@@ -3764,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -3785,40 +3884,40 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12">
         <v>0</v>
       </c>
       <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
         <v>582</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>148</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
         <v>6</v>
       </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
         <v>15</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>1</v>
-      </c>
       <c r="BQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12">
         <v>1</v>
@@ -3833,48 +3932,54 @@
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY12">
         <v>0</v>
       </c>
       <c r="BZ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA12">
         <v>0</v>
       </c>
       <c r="CB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CE12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CF12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH12">
         <v>0</v>
       </c>
       <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3972,20 +4077,17 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>22</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -4030,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB13">
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -4054,29 +4156,29 @@
         <v>0</v>
       </c>
       <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
         <v>658</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>122</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
       <c r="BM13">
         <v>0</v>
       </c>
       <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
         <v>20</v>
       </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
       <c r="BQ13">
         <v>0</v>
       </c>
@@ -4099,31 +4201,31 @@
         <v>0</v>
       </c>
       <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
         <v>10</v>
       </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
       <c r="CA13">
         <v>0</v>
       </c>
       <c r="CB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD13">
         <v>1</v>
       </c>
       <c r="CE13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG13">
         <v>0</v>
@@ -4132,12 +4234,18 @@
         <v>0</v>
       </c>
       <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:87">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4235,172 +4343,175 @@
       <c r="AG14">
         <v>3</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>9</v>
       </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
         <v>5</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
       <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
         <v>6</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
       <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>8</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>5</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
       <c r="AY14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
         <v>31</v>
       </c>
-      <c r="BA14">
-        <v>1</v>
-      </c>
-      <c r="BB14">
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
         <v>9</v>
       </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
       <c r="BE14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>3</v>
+      </c>
+      <c r="BH14">
         <v>16</v>
       </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>2</v>
-      </c>
       <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>2</v>
+      </c>
+      <c r="BK14">
         <v>954</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>363</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
         <v>5</v>
       </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
         <v>35</v>
       </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
       <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
         <v>4</v>
       </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>1</v>
-      </c>
       <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
         <v>9</v>
       </c>
-      <c r="BU14">
+      <c r="BW14">
         <v>8</v>
       </c>
-      <c r="BV14">
-        <v>2</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
       <c r="BX14">
+        <v>2</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
         <v>10</v>
       </c>
-      <c r="BY14">
-        <v>0</v>
-      </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
       <c r="CA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB14">
         <v>0</v>
       </c>
       <c r="CC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
         <v>4</v>
       </c>
-      <c r="CE14">
-        <v>1</v>
-      </c>
-      <c r="CF14">
-        <v>2</v>
-      </c>
       <c r="CG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI14">
         <v>0</v>
       </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4498,9 +4609,6 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
@@ -4511,159 +4619,165 @@
         <v>0</v>
       </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>4</v>
       </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
       <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>5</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>19</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>11</v>
       </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
       <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
         <v>4</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
       <c r="AT15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
       <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>13</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
         <v>6</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>4</v>
       </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
         <v>11</v>
       </c>
-      <c r="BA15">
-        <v>1</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15">
         <v>0</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15">
         <v>0</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15">
         <v>0</v>
       </c>
       <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
         <v>1154</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>457</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>8</v>
       </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
       <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
         <v>69</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>6</v>
       </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
         <v>7</v>
       </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
       <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
         <v>19</v>
       </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
-      </c>
       <c r="BW15">
         <v>0</v>
       </c>
       <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
         <v>10</v>
       </c>
-      <c r="BY15">
+      <c r="CA15">
         <v>7</v>
       </c>
-      <c r="BZ15">
+      <c r="CB15">
         <v>4</v>
       </c>
-      <c r="CA15">
-        <v>2</v>
-      </c>
-      <c r="CB15">
+      <c r="CC15">
+        <v>2</v>
+      </c>
+      <c r="CD15">
         <v>5</v>
       </c>
-      <c r="CC15">
+      <c r="CE15">
         <v>19</v>
       </c>
-      <c r="CD15">
-        <v>1</v>
-      </c>
-      <c r="CE15">
-        <v>1</v>
-      </c>
       <c r="CF15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH15">
+        <v>3</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
         <v>18</v>
       </c>
-      <c r="CI15">
+      <c r="CK15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -4761,172 +4875,175 @@
       <c r="AG16">
         <v>25</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>24</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <v>8</v>
       </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <v>7</v>
       </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
       <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
         <v>4</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>7</v>
       </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
         <v>18</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>4</v>
       </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
         <v>18</v>
       </c>
-      <c r="BA16">
-        <v>1</v>
-      </c>
-      <c r="BB16">
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
         <v>27</v>
       </c>
-      <c r="BC16">
+      <c r="BE16">
         <v>7</v>
       </c>
-      <c r="BD16">
-        <v>1</v>
-      </c>
-      <c r="BE16">
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
         <v>6</v>
       </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
       <c r="BH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
         <v>1175</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>515</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>4</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>15</v>
       </c>
-      <c r="BM16">
-        <v>1</v>
-      </c>
-      <c r="BN16">
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
         <v>34</v>
       </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
         <v>5</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>5</v>
       </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
         <v>4</v>
       </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
         <v>6</v>
       </c>
-      <c r="BV16">
+      <c r="BX16">
         <v>4</v>
       </c>
-      <c r="BW16">
-        <v>1</v>
-      </c>
-      <c r="BX16">
+      <c r="BY16">
+        <v>1</v>
+      </c>
+      <c r="BZ16">
         <v>5</v>
       </c>
-      <c r="BY16">
-        <v>0</v>
-      </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
       <c r="CA16">
         <v>0</v>
       </c>
       <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
         <v>8</v>
       </c>
-      <c r="CC16">
-        <v>3</v>
-      </c>
-      <c r="CD16">
-        <v>0</v>
-      </c>
       <c r="CE16">
+        <v>3</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
         <v>5</v>
       </c>
-      <c r="CF16">
+      <c r="CH16">
         <v>9</v>
       </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
         <v>11</v>
       </c>
-      <c r="CI16">
+      <c r="CK16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -5024,152 +5141,149 @@
       <c r="AG17">
         <v>1</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
       <c r="AI17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>7</v>
       </c>
       <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
         <v>5</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
       <c r="AM17">
         <v>0</v>
       </c>
       <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>5</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
       <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>9</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>5</v>
       </c>
-      <c r="AR17">
-        <v>2</v>
-      </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>6</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>4</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>13</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
         <v>8</v>
       </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
         <v>31</v>
       </c>
-      <c r="BA17">
-        <v>3</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
       <c r="BC17">
+        <v>3</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
         <v>4</v>
       </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
         <v>7</v>
       </c>
-      <c r="BF17">
+      <c r="BH17">
         <v>9</v>
       </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
       <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
         <v>1459</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>602</v>
       </c>
-      <c r="BK17">
-        <v>3</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
       <c r="BM17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
         <v>44</v>
       </c>
-      <c r="BO17">
+      <c r="BQ17">
         <v>4</v>
       </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>3</v>
-      </c>
       <c r="BR17">
         <v>0</v>
       </c>
       <c r="BS17">
+        <v>3</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
         <v>4</v>
       </c>
-      <c r="BT17">
-        <v>3</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
       <c r="BV17">
+        <v>3</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
         <v>7</v>
       </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
         <v>12</v>
       </c>
-      <c r="BY17">
-        <v>1</v>
-      </c>
-      <c r="BZ17">
-        <v>0</v>
-      </c>
       <c r="CA17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB17">
         <v>0</v>
       </c>
       <c r="CC17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE17">
         <v>0</v>
@@ -5181,15 +5295,21 @@
         <v>0</v>
       </c>
       <c r="CH17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:87">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5287,114 +5407,111 @@
       <c r="AG18">
         <v>23</v>
       </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>32</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>6</v>
       </c>
-      <c r="AK18">
-        <v>3</v>
-      </c>
       <c r="AL18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
         <v>7</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>15</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>4</v>
       </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
       <c r="AR18">
         <v>0</v>
       </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>7</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
         <v>18</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>6</v>
       </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
         <v>4</v>
       </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
       <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
         <v>58</v>
       </c>
-      <c r="BA18">
-        <v>3</v>
-      </c>
-      <c r="BB18">
+      <c r="BC18">
+        <v>3</v>
+      </c>
+      <c r="BD18">
         <v>22</v>
       </c>
-      <c r="BC18">
-        <v>2</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
       <c r="BE18">
+        <v>2</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
         <v>5</v>
       </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
         <v>6</v>
       </c>
-      <c r="BH18">
-        <v>3</v>
-      </c>
-      <c r="BI18">
+      <c r="BJ18">
+        <v>3</v>
+      </c>
+      <c r="BK18">
         <v>1786</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>662</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>5</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>6</v>
       </c>
-      <c r="BM18">
-        <v>2</v>
-      </c>
-      <c r="BN18">
+      <c r="BO18">
+        <v>2</v>
+      </c>
+      <c r="BP18">
         <v>35</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
         <v>4</v>
       </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>2</v>
-      </c>
       <c r="BR18">
         <v>0</v>
       </c>
@@ -5402,57 +5519,63 @@
         <v>2</v>
       </c>
       <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>2</v>
+      </c>
+      <c r="BV18">
         <v>10</v>
       </c>
-      <c r="BU18">
+      <c r="BW18">
         <v>12</v>
-      </c>
-      <c r="BV18">
-        <v>5</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
       </c>
       <c r="BX18">
         <v>5</v>
       </c>
       <c r="BY18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CA18">
+        <v>3</v>
+      </c>
+      <c r="CB18">
+        <v>2</v>
+      </c>
+      <c r="CC18">
         <v>34</v>
       </c>
-      <c r="CB18">
+      <c r="CD18">
         <v>4</v>
       </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
       <c r="CE18">
         <v>0</v>
       </c>
       <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
         <v>15</v>
       </c>
-      <c r="CG18">
-        <v>0</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
       <c r="CI18">
         <v>0</v>
       </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5550,63 +5673,60 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>33</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>7</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>5</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
       <c r="AP19">
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS19">
         <v>0</v>
       </c>
       <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>25</v>
       </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
         <v>26</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
         <v>9</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
       <c r="BA19">
         <v>0</v>
       </c>
@@ -5617,105 +5737,111 @@
         <v>0</v>
       </c>
       <c r="BD19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE19">
         <v>0</v>
       </c>
       <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
         <v>23</v>
       </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>3</v>
-      </c>
       <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>3</v>
+      </c>
+      <c r="BK19">
         <v>1667</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>637</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>9</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>17</v>
       </c>
-      <c r="BM19">
-        <v>1</v>
-      </c>
-      <c r="BN19">
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
         <v>80</v>
       </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
       <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>13</v>
       </c>
-      <c r="BR19">
-        <v>1</v>
-      </c>
-      <c r="BS19">
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
         <v>4</v>
       </c>
-      <c r="BT19">
+      <c r="BV19">
         <v>14</v>
       </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
         <v>7</v>
       </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
       <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
         <v>8</v>
       </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
         <v>22</v>
       </c>
-      <c r="CB19">
-        <v>1</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
       <c r="CD19">
+        <v>1</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
         <v>6</v>
       </c>
-      <c r="CE19">
+      <c r="CG19">
         <v>8</v>
       </c>
-      <c r="CF19">
+      <c r="CH19">
         <v>7</v>
       </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
         <v>9</v>
       </c>
-      <c r="CI19">
+      <c r="CK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:87">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5813,23 +5939,20 @@
       <c r="AG20">
         <v>61</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>42</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -5838,29 +5961,29 @@
         <v>0</v>
       </c>
       <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
         <v>15</v>
       </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
         <v>0</v>
       </c>
       <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>19</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>12</v>
       </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
       <c r="AX20">
         <v>0</v>
       </c>
@@ -5871,114 +5994,120 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>2</v>
+      </c>
+      <c r="BD20">
         <v>7</v>
       </c>
-      <c r="BC20">
+      <c r="BE20">
         <v>23</v>
       </c>
-      <c r="BD20">
-        <v>3</v>
-      </c>
-      <c r="BE20">
+      <c r="BF20">
+        <v>3</v>
+      </c>
+      <c r="BG20">
         <v>7</v>
       </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
       <c r="BH20">
         <v>0</v>
       </c>
       <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
         <v>2186</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>880</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>14</v>
       </c>
-      <c r="BL20">
+      <c r="BN20">
         <v>16</v>
       </c>
-      <c r="BM20">
-        <v>3</v>
-      </c>
-      <c r="BN20">
+      <c r="BO20">
+        <v>3</v>
+      </c>
+      <c r="BP20">
         <v>69</v>
       </c>
-      <c r="BO20">
+      <c r="BQ20">
         <v>7</v>
       </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
         <v>4</v>
       </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
       <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
         <v>8</v>
       </c>
-      <c r="BU20">
+      <c r="BW20">
         <v>15</v>
       </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
       <c r="BX20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>3</v>
+      </c>
+      <c r="CA20">
         <v>9</v>
       </c>
-      <c r="BZ20">
-        <v>2</v>
-      </c>
-      <c r="CA20">
+      <c r="CB20">
+        <v>2</v>
+      </c>
+      <c r="CC20">
         <v>8</v>
       </c>
-      <c r="CB20">
-        <v>0</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
       <c r="CD20">
         <v>0</v>
       </c>
       <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
         <v>17</v>
       </c>
-      <c r="CF20">
+      <c r="CH20">
         <v>11</v>
       </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
-      <c r="CH20">
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
         <v>12</v>
       </c>
-      <c r="CI20">
+      <c r="CK20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:87">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6076,60 +6205,57 @@
       <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>30</v>
-      </c>
-      <c r="AJ21">
-        <v>8</v>
       </c>
       <c r="AK21">
         <v>8</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
         <v>20</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>5</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>17</v>
       </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
       <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
         <v>4</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>5</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
       <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>23</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>4</v>
       </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
         <v>5</v>
       </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
       <c r="AZ21">
         <v>0</v>
       </c>
@@ -6137,111 +6263,117 @@
         <v>1</v>
       </c>
       <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
         <v>10</v>
       </c>
-      <c r="BC21">
+      <c r="BE21">
         <v>16</v>
       </c>
-      <c r="BD21">
-        <v>3</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
       <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
         <v>11</v>
       </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
       <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
         <v>2558</v>
       </c>
-      <c r="BJ21">
+      <c r="BL21">
         <v>1203</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
         <v>26</v>
       </c>
-      <c r="BL21">
+      <c r="BN21">
         <v>18</v>
       </c>
-      <c r="BM21">
+      <c r="BO21">
         <v>5</v>
       </c>
-      <c r="BN21">
+      <c r="BP21">
         <v>121</v>
       </c>
-      <c r="BO21">
-        <v>2</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
       <c r="BQ21">
+        <v>2</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
         <v>7</v>
       </c>
-      <c r="BR21">
-        <v>0</v>
-      </c>
-      <c r="BS21">
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
         <v>4</v>
       </c>
-      <c r="BT21">
+      <c r="BV21">
         <v>12</v>
       </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
-      <c r="BV21">
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
         <v>44</v>
       </c>
-      <c r="BW21">
+      <c r="BY21">
         <v>4</v>
       </c>
-      <c r="BX21">
+      <c r="BZ21">
         <v>11</v>
       </c>
-      <c r="BY21">
+      <c r="CA21">
         <v>14</v>
       </c>
-      <c r="BZ21">
-        <v>0</v>
-      </c>
-      <c r="CA21">
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
         <v>16</v>
       </c>
-      <c r="CB21">
+      <c r="CD21">
         <v>14</v>
       </c>
-      <c r="CC21">
-        <v>0</v>
-      </c>
-      <c r="CD21">
-        <v>3</v>
-      </c>
       <c r="CE21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF21">
+        <v>3</v>
+      </c>
+      <c r="CG21">
+        <v>2</v>
+      </c>
+      <c r="CH21">
         <v>15</v>
       </c>
-      <c r="CG21">
-        <v>0</v>
-      </c>
-      <c r="CH21">
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
         <v>4</v>
       </c>
-      <c r="CI21">
+      <c r="CK21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -6339,15 +6471,12 @@
       <c r="AG22">
         <v>0</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>68</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
@@ -6355,145 +6484,145 @@
         <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
         <v>8</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>7</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
         <v>27</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>4</v>
       </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
       <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
         <v>7</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
         <v>22</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>9</v>
       </c>
-      <c r="AV22">
+      <c r="AX22">
         <v>16</v>
       </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
       <c r="AY22">
         <v>0</v>
       </c>
       <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
         <v>97</v>
       </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
         <v>11</v>
       </c>
-      <c r="BC22">
+      <c r="BE22">
         <v>13</v>
       </c>
-      <c r="BD22">
-        <v>1</v>
-      </c>
-      <c r="BE22">
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
         <v>18</v>
       </c>
-      <c r="BF22">
+      <c r="BH22">
         <v>23</v>
       </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
         <v>8</v>
       </c>
-      <c r="BI22">
+      <c r="BK22">
         <v>2775</v>
       </c>
-      <c r="BJ22">
+      <c r="BL22">
         <v>1286</v>
       </c>
-      <c r="BK22">
+      <c r="BM22">
         <v>20</v>
       </c>
-      <c r="BL22">
+      <c r="BN22">
         <v>27</v>
       </c>
-      <c r="BM22">
+      <c r="BO22">
         <v>11</v>
       </c>
-      <c r="BN22">
+      <c r="BP22">
         <v>121</v>
       </c>
-      <c r="BO22">
+      <c r="BQ22">
         <v>5</v>
       </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
         <v>8</v>
       </c>
-      <c r="BR22">
-        <v>0</v>
-      </c>
-      <c r="BS22">
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
         <v>34</v>
       </c>
-      <c r="BT22">
+      <c r="BV22">
         <v>9</v>
       </c>
-      <c r="BU22">
+      <c r="BW22">
         <v>35</v>
       </c>
-      <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
         <v>7</v>
       </c>
-      <c r="BX22">
-        <v>0</v>
-      </c>
-      <c r="BY22">
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
         <v>14</v>
       </c>
-      <c r="BZ22">
+      <c r="CB22">
         <v>6</v>
       </c>
-      <c r="CA22">
-        <v>0</v>
-      </c>
-      <c r="CB22">
-        <v>0</v>
-      </c>
       <c r="CC22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CD22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE22">
         <v>15</v>
       </c>
       <c r="CF22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CG22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CH22">
         <v>0</v>
@@ -6501,10 +6630,16 @@
       <c r="CI22">
         <v>0</v>
       </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -6602,172 +6737,175 @@
       <c r="AG23">
         <v>137</v>
       </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
       <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
         <v>47</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>17</v>
       </c>
-      <c r="AL23">
-        <v>2</v>
-      </c>
       <c r="AM23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
         <v>16</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>27</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>4</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>6</v>
       </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
       <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
         <v>20</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>6</v>
       </c>
-      <c r="AV23">
+      <c r="AX23">
         <v>5</v>
       </c>
-      <c r="AW23">
+      <c r="AY23">
         <v>56</v>
       </c>
-      <c r="AX23">
-        <v>3</v>
-      </c>
-      <c r="AY23">
+      <c r="AZ23">
+        <v>3</v>
+      </c>
+      <c r="BA23">
         <v>4</v>
       </c>
-      <c r="AZ23">
+      <c r="BB23">
         <v>97</v>
       </c>
-      <c r="BA23">
-        <v>2</v>
-      </c>
-      <c r="BB23">
+      <c r="BC23">
+        <v>2</v>
+      </c>
+      <c r="BD23">
         <v>27</v>
       </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
         <v>7</v>
       </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
       <c r="BG23">
         <v>0</v>
       </c>
       <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
         <v>6</v>
       </c>
-      <c r="BI23">
+      <c r="BK23">
         <v>3387</v>
       </c>
-      <c r="BJ23">
+      <c r="BL23">
         <v>1613</v>
       </c>
-      <c r="BK23">
+      <c r="BM23">
         <v>6</v>
       </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
       <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
         <v>130</v>
       </c>
-      <c r="BO23">
+      <c r="BQ23">
         <v>7</v>
       </c>
-      <c r="BP23">
-        <v>1</v>
-      </c>
-      <c r="BQ23">
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
         <v>12</v>
       </c>
-      <c r="BR23">
-        <v>0</v>
-      </c>
-      <c r="BS23">
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
         <v>51</v>
       </c>
-      <c r="BT23">
+      <c r="BV23">
         <v>20</v>
       </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
-      <c r="BV23">
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
         <v>42</v>
       </c>
-      <c r="BW23">
-        <v>0</v>
-      </c>
-      <c r="BX23">
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
         <v>45</v>
-      </c>
-      <c r="BY23">
-        <v>18</v>
-      </c>
-      <c r="BZ23">
-        <v>8</v>
       </c>
       <c r="CA23">
         <v>18</v>
       </c>
       <c r="CB23">
+        <v>8</v>
+      </c>
+      <c r="CC23">
+        <v>18</v>
+      </c>
+      <c r="CD23">
         <v>23</v>
       </c>
-      <c r="CC23">
+      <c r="CE23">
         <v>15</v>
       </c>
-      <c r="CD23">
-        <v>3</v>
-      </c>
-      <c r="CE23">
+      <c r="CF23">
+        <v>3</v>
+      </c>
+      <c r="CG23">
         <v>41</v>
       </c>
-      <c r="CF23">
+      <c r="CH23">
         <v>13</v>
       </c>
-      <c r="CG23">
-        <v>1</v>
-      </c>
-      <c r="CH23">
+      <c r="CI23">
+        <v>1</v>
+      </c>
+      <c r="CJ23">
         <v>7</v>
       </c>
-      <c r="CI23">
+      <c r="CK23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:87">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -6865,172 +7003,175 @@
       <c r="AG24">
         <v>41</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>65</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>27</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>11</v>
       </c>
-      <c r="AL24">
-        <v>1</v>
-      </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
         <v>28</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>32</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>7</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>18</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>4</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>5</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>16</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>42</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>8</v>
       </c>
-      <c r="AV24">
+      <c r="AX24">
         <v>49</v>
       </c>
-      <c r="AW24">
+      <c r="AY24">
         <v>63</v>
       </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
-      <c r="AY24">
-        <v>1</v>
-      </c>
       <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
         <v>39</v>
       </c>
-      <c r="BA24">
-        <v>3</v>
-      </c>
-      <c r="BB24">
+      <c r="BC24">
+        <v>3</v>
+      </c>
+      <c r="BD24">
         <v>29</v>
       </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>2</v>
-      </c>
       <c r="BE24">
         <v>0</v>
       </c>
       <c r="BF24">
+        <v>2</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
         <v>21</v>
       </c>
-      <c r="BG24">
-        <v>2</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
       <c r="BI24">
+        <v>2</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
         <v>3448</v>
       </c>
-      <c r="BJ24">
+      <c r="BL24">
         <v>2078</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
         <v>41</v>
       </c>
-      <c r="BL24">
+      <c r="BN24">
         <v>38</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>10</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>154</v>
       </c>
-      <c r="BO24">
+      <c r="BQ24">
         <v>14</v>
       </c>
-      <c r="BP24">
-        <v>0</v>
-      </c>
-      <c r="BQ24">
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
         <v>6</v>
       </c>
-      <c r="BR24">
-        <v>0</v>
-      </c>
-      <c r="BS24">
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
         <v>26</v>
       </c>
-      <c r="BT24">
+      <c r="BV24">
         <v>28</v>
       </c>
-      <c r="BU24">
+      <c r="BW24">
         <v>50</v>
       </c>
-      <c r="BV24">
+      <c r="BX24">
         <v>34</v>
       </c>
-      <c r="BW24">
+      <c r="BY24">
         <v>6</v>
       </c>
-      <c r="BX24">
+      <c r="BZ24">
         <v>44</v>
       </c>
-      <c r="BY24">
+      <c r="CA24">
         <v>27</v>
       </c>
-      <c r="BZ24">
+      <c r="CB24">
         <v>15</v>
       </c>
-      <c r="CA24">
+      <c r="CC24">
         <v>19</v>
       </c>
-      <c r="CB24">
+      <c r="CD24">
         <v>14</v>
       </c>
-      <c r="CC24">
+      <c r="CE24">
         <v>39</v>
       </c>
-      <c r="CD24">
-        <v>2</v>
-      </c>
-      <c r="CE24">
-        <v>3</v>
-      </c>
       <c r="CF24">
+        <v>2</v>
+      </c>
+      <c r="CG24">
+        <v>3</v>
+      </c>
+      <c r="CH24">
         <v>47</v>
       </c>
-      <c r="CG24">
-        <v>0</v>
-      </c>
-      <c r="CH24">
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
         <v>22</v>
       </c>
-      <c r="CI24">
+      <c r="CK24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:87">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -7128,26 +7269,23 @@
       <c r="AG25">
         <v>8</v>
       </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>54</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>21</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>12</v>
       </c>
-      <c r="AL25">
-        <v>3</v>
-      </c>
       <c r="AM25">
+        <v>3</v>
+      </c>
+      <c r="AN25">
         <v>38</v>
-      </c>
-      <c r="AN25">
-        <v>12</v>
       </c>
       <c r="AO25">
         <v>12</v>
@@ -7156,144 +7294,150 @@
         <v>12</v>
       </c>
       <c r="AQ25">
+        <v>12</v>
+      </c>
+      <c r="AR25">
         <v>9</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>5</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>36</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>22</v>
       </c>
-      <c r="AU25">
-        <v>3</v>
-      </c>
-      <c r="AV25">
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
         <v>59</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
         <v>38</v>
       </c>
-      <c r="AX25">
+      <c r="AZ25">
         <v>17</v>
       </c>
-      <c r="AY25">
-        <v>1</v>
-      </c>
-      <c r="AZ25">
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
         <v>14</v>
       </c>
-      <c r="BA25">
-        <v>3</v>
-      </c>
-      <c r="BB25">
+      <c r="BC25">
+        <v>3</v>
+      </c>
+      <c r="BD25">
         <v>32</v>
       </c>
-      <c r="BC25">
+      <c r="BE25">
         <v>65</v>
       </c>
-      <c r="BD25">
-        <v>3</v>
-      </c>
-      <c r="BE25">
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
         <v>13</v>
       </c>
-      <c r="BF25">
+      <c r="BH25">
         <v>16</v>
       </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25">
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
         <v>11</v>
       </c>
-      <c r="BI25">
+      <c r="BK25">
         <v>4070</v>
       </c>
-      <c r="BJ25">
+      <c r="BL25">
         <v>2111</v>
       </c>
-      <c r="BK25">
+      <c r="BM25">
         <v>23</v>
       </c>
-      <c r="BL25">
+      <c r="BN25">
         <v>30</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>13</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>424</v>
       </c>
-      <c r="BO25">
+      <c r="BQ25">
         <v>17</v>
       </c>
-      <c r="BP25">
+      <c r="BR25">
         <v>7</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>4</v>
       </c>
-      <c r="BR25">
-        <v>0</v>
-      </c>
-      <c r="BS25">
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
         <v>7</v>
       </c>
-      <c r="BT25">
+      <c r="BV25">
         <v>12</v>
       </c>
-      <c r="BU25">
-        <v>0</v>
-      </c>
-      <c r="BV25">
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
         <v>37</v>
       </c>
-      <c r="BW25">
-        <v>0</v>
-      </c>
-      <c r="BX25">
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
         <v>25</v>
       </c>
-      <c r="BY25">
+      <c r="CA25">
         <v>34</v>
       </c>
-      <c r="BZ25">
+      <c r="CB25">
         <v>16</v>
       </c>
-      <c r="CA25">
+      <c r="CC25">
         <v>15</v>
       </c>
-      <c r="CB25">
+      <c r="CD25">
         <v>18</v>
       </c>
-      <c r="CC25">
+      <c r="CE25">
         <v>18</v>
       </c>
-      <c r="CD25">
+      <c r="CF25">
         <v>4</v>
       </c>
-      <c r="CE25">
+      <c r="CG25">
         <v>7</v>
       </c>
-      <c r="CF25">
+      <c r="CH25">
         <v>12</v>
       </c>
-      <c r="CG25">
-        <v>1</v>
-      </c>
-      <c r="CH25">
+      <c r="CI25">
+        <v>1</v>
+      </c>
+      <c r="CJ25">
         <v>6</v>
       </c>
-      <c r="CI25">
+      <c r="CK25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:87">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -7391,110 +7535,107 @@
       <c r="AG26">
         <v>7</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>59</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>6</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>10</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>5</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>20</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>34</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>21</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>26</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>18</v>
-      </c>
-      <c r="AR26">
-        <v>5</v>
       </c>
       <c r="AS26">
         <v>5</v>
       </c>
       <c r="AT26">
+        <v>5</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>39</v>
       </c>
-      <c r="AU26">
+      <c r="AW26">
         <v>9</v>
       </c>
-      <c r="AV26">
+      <c r="AX26">
         <v>44</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
         <v>36</v>
       </c>
-      <c r="AX26">
+      <c r="AZ26">
         <v>14</v>
       </c>
-      <c r="AY26">
+      <c r="BA26">
         <v>6</v>
       </c>
-      <c r="AZ26">
+      <c r="BB26">
         <v>19</v>
       </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
-      <c r="BB26">
+      <c r="BC26">
+        <v>3</v>
+      </c>
+      <c r="BD26">
         <v>40</v>
       </c>
-      <c r="BC26">
+      <c r="BE26">
         <v>62</v>
       </c>
-      <c r="BD26">
+      <c r="BF26">
         <v>9</v>
       </c>
-      <c r="BE26">
+      <c r="BG26">
         <v>29</v>
       </c>
-      <c r="BF26">
+      <c r="BH26">
         <v>16</v>
       </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
         <v>8</v>
       </c>
-      <c r="BI26">
+      <c r="BK26">
         <v>4785</v>
       </c>
-      <c r="BJ26">
+      <c r="BL26">
         <v>2136</v>
       </c>
-      <c r="BK26">
+      <c r="BM26">
         <v>29</v>
       </c>
-      <c r="BL26">
+      <c r="BN26">
         <v>41</v>
       </c>
-      <c r="BM26">
-        <v>1</v>
-      </c>
-      <c r="BN26">
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
         <v>139</v>
-      </c>
-      <c r="BO26">
-        <v>11</v>
-      </c>
-      <c r="BP26">
-        <v>0</v>
       </c>
       <c r="BQ26">
         <v>11</v>
@@ -7503,60 +7644,66 @@
         <v>0</v>
       </c>
       <c r="BS26">
+        <v>11</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
         <v>13</v>
       </c>
-      <c r="BT26">
+      <c r="BV26">
         <v>54</v>
       </c>
-      <c r="BU26">
+      <c r="BW26">
         <v>32</v>
       </c>
-      <c r="BV26">
+      <c r="BX26">
         <v>49</v>
       </c>
-      <c r="BW26">
-        <v>3</v>
-      </c>
-      <c r="BX26">
+      <c r="BY26">
+        <v>3</v>
+      </c>
+      <c r="BZ26">
         <v>30</v>
       </c>
-      <c r="BY26">
+      <c r="CA26">
         <v>39</v>
       </c>
-      <c r="BZ26">
+      <c r="CB26">
         <v>4</v>
       </c>
-      <c r="CA26">
+      <c r="CC26">
         <v>19</v>
       </c>
-      <c r="CB26">
+      <c r="CD26">
         <v>38</v>
       </c>
-      <c r="CC26">
+      <c r="CE26">
         <v>33</v>
       </c>
-      <c r="CD26">
+      <c r="CF26">
         <v>4</v>
       </c>
-      <c r="CE26">
+      <c r="CG26">
         <v>60</v>
       </c>
-      <c r="CF26">
+      <c r="CH26">
         <v>27</v>
       </c>
-      <c r="CG26">
-        <v>0</v>
-      </c>
-      <c r="CH26">
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
         <v>5</v>
       </c>
-      <c r="CI26">
+      <c r="CK26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:87">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -7630,6 +7777,9 @@
       <c r="Y27">
         <v>24</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AA27">
         <v>26</v>
       </c>
@@ -7652,151 +7802,3370 @@
         <v>33</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>129</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>18</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>22</v>
       </c>
-      <c r="AL27">
-        <v>2</v>
-      </c>
       <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
         <v>44</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>13</v>
       </c>
       <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
         <v>28</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>13</v>
       </c>
-      <c r="AR27">
-        <v>2</v>
-      </c>
       <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
         <v>7</v>
       </c>
       <c r="AU27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
         <v>35</v>
       </c>
-      <c r="AW27">
+      <c r="AY27">
         <v>42</v>
-      </c>
-      <c r="AX27">
-        <v>7</v>
-      </c>
-      <c r="AY27">
-        <v>4</v>
       </c>
       <c r="AZ27">
         <v>7</v>
       </c>
       <c r="BA27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
         <v>43</v>
       </c>
-      <c r="BC27">
+      <c r="BE27">
         <v>60</v>
       </c>
-      <c r="BD27">
+      <c r="BF27">
         <v>41</v>
       </c>
-      <c r="BE27">
+      <c r="BG27">
         <v>26</v>
       </c>
-      <c r="BF27">
+      <c r="BH27">
         <v>31</v>
       </c>
-      <c r="BG27">
+      <c r="BI27">
         <v>4</v>
       </c>
-      <c r="BH27">
+      <c r="BJ27">
         <v>22</v>
       </c>
-      <c r="BI27">
+      <c r="BK27">
         <v>6060</v>
       </c>
-      <c r="BK27">
+      <c r="BL27">
+        <v>2490</v>
+      </c>
+      <c r="BM27">
         <v>35</v>
       </c>
-      <c r="BL27">
+      <c r="BN27">
         <v>42</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>15</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>114</v>
       </c>
-      <c r="BO27">
+      <c r="BQ27">
         <v>16</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
         <v>15</v>
       </c>
-      <c r="BR27">
-        <v>1</v>
-      </c>
-      <c r="BS27">
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27">
         <v>21</v>
       </c>
-      <c r="BT27">
+      <c r="BV27">
         <v>23</v>
       </c>
-      <c r="BU27">
+      <c r="BW27">
         <v>22</v>
       </c>
-      <c r="BV27">
+      <c r="BX27">
         <v>33</v>
       </c>
-      <c r="BW27">
+      <c r="BY27">
         <v>5</v>
       </c>
-      <c r="BX27">
+      <c r="BZ27">
         <v>58</v>
       </c>
-      <c r="BY27">
+      <c r="CA27">
         <v>42</v>
       </c>
-      <c r="BZ27">
+      <c r="CB27">
         <v>4</v>
       </c>
-      <c r="CA27">
+      <c r="CC27">
         <v>11</v>
       </c>
-      <c r="CB27">
+      <c r="CD27">
         <v>38</v>
       </c>
-      <c r="CC27">
+      <c r="CE27">
         <v>14</v>
       </c>
-      <c r="CD27">
+      <c r="CF27">
         <v>7</v>
       </c>
-      <c r="CE27">
+      <c r="CG27">
         <v>44</v>
       </c>
-      <c r="CF27">
+      <c r="CH27">
         <v>29</v>
       </c>
-      <c r="CH27">
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
         <v>10</v>
       </c>
-      <c r="CI27">
+      <c r="CK27">
         <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>22</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>29</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>20</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>45</v>
+      </c>
+      <c r="Y28">
+        <v>45</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28">
+        <v>34</v>
+      </c>
+      <c r="AC28">
+        <v>21</v>
+      </c>
+      <c r="AD28">
+        <v>44</v>
+      </c>
+      <c r="AE28">
+        <v>2649</v>
+      </c>
+      <c r="AF28">
+        <v>428</v>
+      </c>
+      <c r="AG28">
+        <v>7</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>59</v>
+      </c>
+      <c r="AK28">
+        <v>6</v>
+      </c>
+      <c r="AL28">
+        <v>10</v>
+      </c>
+      <c r="AM28">
+        <v>5</v>
+      </c>
+      <c r="AN28">
+        <v>20</v>
+      </c>
+      <c r="AO28">
+        <v>34</v>
+      </c>
+      <c r="AP28">
+        <v>21</v>
+      </c>
+      <c r="AQ28">
+        <v>26</v>
+      </c>
+      <c r="AR28">
+        <v>18</v>
+      </c>
+      <c r="AS28">
+        <v>5</v>
+      </c>
+      <c r="AT28">
+        <v>5</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>39</v>
+      </c>
+      <c r="AW28">
+        <v>9</v>
+      </c>
+      <c r="AX28">
+        <v>44</v>
+      </c>
+      <c r="AY28">
+        <v>36</v>
+      </c>
+      <c r="AZ28">
+        <v>14</v>
+      </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
+      <c r="BB28">
+        <v>19</v>
+      </c>
+      <c r="BC28">
+        <v>3</v>
+      </c>
+      <c r="BD28">
+        <v>40</v>
+      </c>
+      <c r="BE28">
+        <v>62</v>
+      </c>
+      <c r="BF28">
+        <v>9</v>
+      </c>
+      <c r="BG28">
+        <v>29</v>
+      </c>
+      <c r="BH28">
+        <v>16</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>8</v>
+      </c>
+      <c r="BK28">
+        <v>4268</v>
+      </c>
+      <c r="BL28">
+        <v>1619</v>
+      </c>
+      <c r="BM28">
+        <v>29</v>
+      </c>
+      <c r="BN28">
+        <v>41</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>139</v>
+      </c>
+      <c r="BQ28">
+        <v>11</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>11</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>13</v>
+      </c>
+      <c r="BV28">
+        <v>54</v>
+      </c>
+      <c r="BW28">
+        <v>32</v>
+      </c>
+      <c r="BX28">
+        <v>49</v>
+      </c>
+      <c r="BY28">
+        <v>3</v>
+      </c>
+      <c r="BZ28">
+        <v>30</v>
+      </c>
+      <c r="CA28">
+        <v>39</v>
+      </c>
+      <c r="CB28">
+        <v>4</v>
+      </c>
+      <c r="CC28">
+        <v>19</v>
+      </c>
+      <c r="CD28">
+        <v>38</v>
+      </c>
+      <c r="CE28">
+        <v>33</v>
+      </c>
+      <c r="CF28">
+        <v>4</v>
+      </c>
+      <c r="CG28">
+        <v>60</v>
+      </c>
+      <c r="CH28">
+        <v>27</v>
+      </c>
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28">
+        <v>5</v>
+      </c>
+      <c r="CK28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>18</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>19</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>19</v>
+      </c>
+      <c r="W29">
+        <v>11</v>
+      </c>
+      <c r="X29">
+        <v>44</v>
+      </c>
+      <c r="Y29">
+        <v>64</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>22</v>
+      </c>
+      <c r="AB29">
+        <v>42</v>
+      </c>
+      <c r="AC29">
+        <v>20</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>3083</v>
+      </c>
+      <c r="AF29">
+        <v>718</v>
+      </c>
+      <c r="AG29">
+        <v>35</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>101</v>
+      </c>
+      <c r="AK29">
+        <v>6</v>
+      </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
+        <v>42</v>
+      </c>
+      <c r="AO29">
+        <v>23</v>
+      </c>
+      <c r="AP29">
+        <v>15</v>
+      </c>
+      <c r="AQ29">
+        <v>22</v>
+      </c>
+      <c r="AR29">
+        <v>7</v>
+      </c>
+      <c r="AS29">
+        <v>6</v>
+      </c>
+      <c r="AT29">
+        <v>8</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>74</v>
+      </c>
+      <c r="AW29">
+        <v>10</v>
+      </c>
+      <c r="AX29">
+        <v>40</v>
+      </c>
+      <c r="AY29">
+        <v>46</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>16</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>20</v>
+      </c>
+      <c r="BE29">
+        <v>34</v>
+      </c>
+      <c r="BF29">
+        <v>4</v>
+      </c>
+      <c r="BG29">
+        <v>32</v>
+      </c>
+      <c r="BH29">
+        <v>50</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>8</v>
+      </c>
+      <c r="BK29">
+        <v>5615</v>
+      </c>
+      <c r="BL29">
+        <v>2532</v>
+      </c>
+      <c r="BM29">
+        <v>54</v>
+      </c>
+      <c r="BN29">
+        <v>27</v>
+      </c>
+      <c r="BO29">
+        <v>8</v>
+      </c>
+      <c r="BP29">
+        <v>127</v>
+      </c>
+      <c r="BQ29">
+        <v>26</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>84</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29">
+        <v>19</v>
+      </c>
+      <c r="BV29">
+        <v>22</v>
+      </c>
+      <c r="BW29">
+        <v>13</v>
+      </c>
+      <c r="BX29">
+        <v>33</v>
+      </c>
+      <c r="BY29">
+        <v>4</v>
+      </c>
+      <c r="BZ29">
+        <v>75</v>
+      </c>
+      <c r="CA29">
+        <v>36</v>
+      </c>
+      <c r="CB29">
+        <v>26</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>28</v>
+      </c>
+      <c r="CE29">
+        <v>9</v>
+      </c>
+      <c r="CF29">
+        <v>14</v>
+      </c>
+      <c r="CG29">
+        <v>39</v>
+      </c>
+      <c r="CH29">
+        <v>10</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>6</v>
+      </c>
+      <c r="CK29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>49</v>
+      </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>23</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+      <c r="R30">
+        <v>72</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>39</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30">
+        <v>22</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>34</v>
+      </c>
+      <c r="AB30">
+        <v>41</v>
+      </c>
+      <c r="AC30">
+        <v>24</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
+        <v>2548</v>
+      </c>
+      <c r="AF30">
+        <v>631</v>
+      </c>
+      <c r="AG30">
+        <v>71</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>69</v>
+      </c>
+      <c r="AK30">
+        <v>26</v>
+      </c>
+      <c r="AL30">
+        <v>16</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30">
+        <v>28</v>
+      </c>
+      <c r="AO30">
+        <v>40</v>
+      </c>
+      <c r="AP30">
+        <v>16</v>
+      </c>
+      <c r="AQ30">
+        <v>29</v>
+      </c>
+      <c r="AR30">
+        <v>62</v>
+      </c>
+      <c r="AS30">
+        <v>4</v>
+      </c>
+      <c r="AT30">
+        <v>5</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>25</v>
+      </c>
+      <c r="AW30">
+        <v>28</v>
+      </c>
+      <c r="AX30">
+        <v>46</v>
+      </c>
+      <c r="AY30">
+        <v>43</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>20</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>22</v>
+      </c>
+      <c r="BE30">
+        <v>30</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>34</v>
+      </c>
+      <c r="BH30">
+        <v>75</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>3</v>
+      </c>
+      <c r="BK30">
+        <v>5263</v>
+      </c>
+      <c r="BL30">
+        <v>2715</v>
+      </c>
+      <c r="BM30">
+        <v>52</v>
+      </c>
+      <c r="BN30">
+        <v>76</v>
+      </c>
+      <c r="BO30">
+        <v>12</v>
+      </c>
+      <c r="BP30">
+        <v>294</v>
+      </c>
+      <c r="BQ30">
+        <v>22</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>10</v>
+      </c>
+      <c r="BT30">
+        <v>1</v>
+      </c>
+      <c r="BU30">
+        <v>36</v>
+      </c>
+      <c r="BV30">
+        <v>11</v>
+      </c>
+      <c r="BW30">
+        <v>18</v>
+      </c>
+      <c r="BX30">
+        <v>27</v>
+      </c>
+      <c r="BY30">
+        <v>6</v>
+      </c>
+      <c r="BZ30">
+        <v>52</v>
+      </c>
+      <c r="CA30">
+        <v>29</v>
+      </c>
+      <c r="CB30">
+        <v>34</v>
+      </c>
+      <c r="CC30">
+        <v>9</v>
+      </c>
+      <c r="CD30">
+        <v>29</v>
+      </c>
+      <c r="CE30">
+        <v>6</v>
+      </c>
+      <c r="CF30">
+        <v>10</v>
+      </c>
+      <c r="CG30">
+        <v>20</v>
+      </c>
+      <c r="CH30">
+        <v>27</v>
+      </c>
+      <c r="CI30">
+        <v>4</v>
+      </c>
+      <c r="CJ30">
+        <v>3</v>
+      </c>
+      <c r="CK30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>46</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>25</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>53</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>11</v>
+      </c>
+      <c r="V31">
+        <v>24</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <v>58</v>
+      </c>
+      <c r="Y31">
+        <v>35</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
+        <v>32</v>
+      </c>
+      <c r="AB31">
+        <v>39</v>
+      </c>
+      <c r="AC31">
+        <v>25</v>
+      </c>
+      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>1959</v>
+      </c>
+      <c r="AF31">
+        <v>688</v>
+      </c>
+      <c r="AG31">
+        <v>97</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>73</v>
+      </c>
+      <c r="AK31">
+        <v>17</v>
+      </c>
+      <c r="AL31">
+        <v>17</v>
+      </c>
+      <c r="AM31">
+        <v>8</v>
+      </c>
+      <c r="AN31">
+        <v>23</v>
+      </c>
+      <c r="AO31">
+        <v>11</v>
+      </c>
+      <c r="AP31">
+        <v>15</v>
+      </c>
+      <c r="AQ31">
+        <v>21</v>
+      </c>
+      <c r="AR31">
+        <v>19</v>
+      </c>
+      <c r="AS31">
+        <v>4</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>26</v>
+      </c>
+      <c r="AW31">
+        <v>10</v>
+      </c>
+      <c r="AX31">
+        <v>37</v>
+      </c>
+      <c r="AY31">
+        <v>39</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>15</v>
+      </c>
+      <c r="BC31">
+        <v>5</v>
+      </c>
+      <c r="BD31">
+        <v>15</v>
+      </c>
+      <c r="BE31">
+        <v>28</v>
+      </c>
+      <c r="BF31">
+        <v>12</v>
+      </c>
+      <c r="BG31">
+        <v>31</v>
+      </c>
+      <c r="BH31">
+        <v>57</v>
+      </c>
+      <c r="BI31">
+        <v>1</v>
+      </c>
+      <c r="BJ31">
+        <v>12</v>
+      </c>
+      <c r="BK31">
+        <v>4774</v>
+      </c>
+      <c r="BL31">
+        <v>2815</v>
+      </c>
+      <c r="BM31">
+        <v>71</v>
+      </c>
+      <c r="BN31">
+        <v>37</v>
+      </c>
+      <c r="BO31">
+        <v>26</v>
+      </c>
+      <c r="BP31">
+        <v>191</v>
+      </c>
+      <c r="BQ31">
+        <v>39</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>28</v>
+      </c>
+      <c r="BT31">
+        <v>6</v>
+      </c>
+      <c r="BU31">
+        <v>7</v>
+      </c>
+      <c r="BV31">
+        <v>55</v>
+      </c>
+      <c r="BW31">
+        <v>23</v>
+      </c>
+      <c r="BX31">
+        <v>27</v>
+      </c>
+      <c r="BY31">
+        <v>9</v>
+      </c>
+      <c r="BZ31">
+        <v>25</v>
+      </c>
+      <c r="CA31">
+        <v>22</v>
+      </c>
+      <c r="CB31">
+        <v>9</v>
+      </c>
+      <c r="CC31">
+        <v>32</v>
+      </c>
+      <c r="CD31">
+        <v>38</v>
+      </c>
+      <c r="CE31">
+        <v>12</v>
+      </c>
+      <c r="CF31">
+        <v>9</v>
+      </c>
+      <c r="CG31">
+        <v>24</v>
+      </c>
+      <c r="CH31">
+        <v>43</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>94</v>
+      </c>
+      <c r="CK31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+      <c r="R32">
+        <v>61</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>25</v>
+      </c>
+      <c r="U32">
+        <v>9</v>
+      </c>
+      <c r="V32">
+        <v>36</v>
+      </c>
+      <c r="W32">
+        <v>16</v>
+      </c>
+      <c r="X32">
+        <v>84</v>
+      </c>
+      <c r="Y32">
+        <v>22</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>37</v>
+      </c>
+      <c r="AB32">
+        <v>39</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>2957</v>
+      </c>
+      <c r="AF32">
+        <v>611</v>
+      </c>
+      <c r="AG32">
+        <v>60</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>94</v>
+      </c>
+      <c r="AK32">
+        <v>14</v>
+      </c>
+      <c r="AL32">
+        <v>41</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>28</v>
+      </c>
+      <c r="AO32">
+        <v>47</v>
+      </c>
+      <c r="AP32">
+        <v>21</v>
+      </c>
+      <c r="AQ32">
+        <v>31</v>
+      </c>
+      <c r="AR32">
+        <v>35</v>
+      </c>
+      <c r="AS32">
+        <v>15</v>
+      </c>
+      <c r="AT32">
+        <v>3</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>33</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>113</v>
+      </c>
+      <c r="AY32">
+        <v>38</v>
+      </c>
+      <c r="AZ32">
+        <v>10</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>11</v>
+      </c>
+      <c r="BC32">
+        <v>2</v>
+      </c>
+      <c r="BD32">
+        <v>29</v>
+      </c>
+      <c r="BE32">
+        <v>39</v>
+      </c>
+      <c r="BF32">
+        <v>9</v>
+      </c>
+      <c r="BG32">
+        <v>33</v>
+      </c>
+      <c r="BH32">
+        <v>14</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>3</v>
+      </c>
+      <c r="BK32">
+        <v>5849</v>
+      </c>
+      <c r="BL32">
+        <v>2892</v>
+      </c>
+      <c r="BM32">
+        <v>64</v>
+      </c>
+      <c r="BN32">
+        <v>46</v>
+      </c>
+      <c r="BO32">
+        <v>44</v>
+      </c>
+      <c r="BP32">
+        <v>253</v>
+      </c>
+      <c r="BQ32">
+        <v>16</v>
+      </c>
+      <c r="BR32">
+        <v>1</v>
+      </c>
+      <c r="BS32">
+        <v>33</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>11</v>
+      </c>
+      <c r="BV32">
+        <v>26</v>
+      </c>
+      <c r="BW32">
+        <v>35</v>
+      </c>
+      <c r="BX32">
+        <v>29</v>
+      </c>
+      <c r="BY32">
+        <v>7</v>
+      </c>
+      <c r="BZ32">
+        <v>44</v>
+      </c>
+      <c r="CA32">
+        <v>16</v>
+      </c>
+      <c r="CB32">
+        <v>17</v>
+      </c>
+      <c r="CC32">
+        <v>25</v>
+      </c>
+      <c r="CD32">
+        <v>41</v>
+      </c>
+      <c r="CE32">
+        <v>2</v>
+      </c>
+      <c r="CF32">
+        <v>57</v>
+      </c>
+      <c r="CG32">
+        <v>18</v>
+      </c>
+      <c r="CH32">
+        <v>43</v>
+      </c>
+      <c r="CI32">
+        <v>5</v>
+      </c>
+      <c r="CJ32">
+        <v>23</v>
+      </c>
+      <c r="CK32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>22</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>29</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>69</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>46</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>40</v>
+      </c>
+      <c r="W33">
+        <v>17</v>
+      </c>
+      <c r="X33">
+        <v>84</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
+      </c>
+      <c r="AA33">
+        <v>44</v>
+      </c>
+      <c r="AB33">
+        <v>43</v>
+      </c>
+      <c r="AC33">
+        <v>21</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>2612</v>
+      </c>
+      <c r="AF33">
+        <v>605</v>
+      </c>
+      <c r="AG33">
+        <v>193</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>118</v>
+      </c>
+      <c r="AK33">
+        <v>15</v>
+      </c>
+      <c r="AL33">
+        <v>38</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AN33">
+        <v>56</v>
+      </c>
+      <c r="AO33">
+        <v>25</v>
+      </c>
+      <c r="AP33">
+        <v>23</v>
+      </c>
+      <c r="AQ33">
+        <v>55</v>
+      </c>
+      <c r="AR33">
+        <v>34</v>
+      </c>
+      <c r="AS33">
+        <v>12</v>
+      </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>35</v>
+      </c>
+      <c r="AW33">
+        <v>13</v>
+      </c>
+      <c r="AX33">
+        <v>157</v>
+      </c>
+      <c r="AY33">
+        <v>41</v>
+      </c>
+      <c r="AZ33">
+        <v>18</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>8</v>
+      </c>
+      <c r="BC33">
+        <v>4</v>
+      </c>
+      <c r="BD33">
+        <v>30</v>
+      </c>
+      <c r="BE33">
+        <v>45</v>
+      </c>
+      <c r="BF33">
+        <v>4</v>
+      </c>
+      <c r="BG33">
+        <v>30</v>
+      </c>
+      <c r="BH33">
+        <v>65</v>
+      </c>
+      <c r="BI33">
+        <v>9</v>
+      </c>
+      <c r="BJ33">
+        <v>49</v>
+      </c>
+      <c r="BK33">
+        <v>5936</v>
+      </c>
+      <c r="BL33">
+        <v>3324</v>
+      </c>
+      <c r="BM33">
+        <v>51</v>
+      </c>
+      <c r="BN33">
+        <v>64</v>
+      </c>
+      <c r="BO33">
+        <v>24</v>
+      </c>
+      <c r="BP33">
+        <v>215</v>
+      </c>
+      <c r="BQ33">
+        <v>20</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>33</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>17</v>
+      </c>
+      <c r="BV33">
+        <v>27</v>
+      </c>
+      <c r="BW33">
+        <v>45</v>
+      </c>
+      <c r="BX33">
+        <v>29</v>
+      </c>
+      <c r="BY33">
+        <v>7</v>
+      </c>
+      <c r="BZ33">
+        <v>73</v>
+      </c>
+      <c r="CA33">
+        <v>17</v>
+      </c>
+      <c r="CB33">
+        <v>15</v>
+      </c>
+      <c r="CC33">
+        <v>27</v>
+      </c>
+      <c r="CD33">
+        <v>28</v>
+      </c>
+      <c r="CE33">
+        <v>16</v>
+      </c>
+      <c r="CF33">
+        <v>72</v>
+      </c>
+      <c r="CG33">
+        <v>22</v>
+      </c>
+      <c r="CH33">
+        <v>35</v>
+      </c>
+      <c r="CI33">
+        <v>1</v>
+      </c>
+      <c r="CJ33">
+        <v>37</v>
+      </c>
+      <c r="CK33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>78</v>
+      </c>
+      <c r="H34">
+        <v>49</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>28</v>
+      </c>
+      <c r="Q34">
+        <v>26</v>
+      </c>
+      <c r="R34">
+        <v>70</v>
+      </c>
+      <c r="S34">
+        <v>23</v>
+      </c>
+      <c r="T34">
+        <v>42</v>
+      </c>
+      <c r="U34">
+        <v>21</v>
+      </c>
+      <c r="V34">
+        <v>46</v>
+      </c>
+      <c r="W34">
+        <v>11</v>
+      </c>
+      <c r="X34">
+        <v>73</v>
+      </c>
+      <c r="Y34">
+        <v>41</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>67</v>
+      </c>
+      <c r="AB34">
+        <v>42</v>
+      </c>
+      <c r="AC34">
+        <v>22</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>2971</v>
+      </c>
+      <c r="AF34">
+        <v>576</v>
+      </c>
+      <c r="AG34">
+        <v>105</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>153</v>
+      </c>
+      <c r="AK34">
+        <v>25</v>
+      </c>
+      <c r="AL34">
+        <v>58</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AN34">
+        <v>16</v>
+      </c>
+      <c r="AO34">
+        <v>42</v>
+      </c>
+      <c r="AP34">
+        <v>6</v>
+      </c>
+      <c r="AQ34">
+        <v>61</v>
+      </c>
+      <c r="AR34">
+        <v>24</v>
+      </c>
+      <c r="AS34">
+        <v>17</v>
+      </c>
+      <c r="AT34">
+        <v>15</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>37</v>
+      </c>
+      <c r="AW34">
+        <v>6</v>
+      </c>
+      <c r="AX34">
+        <v>103</v>
+      </c>
+      <c r="AY34">
+        <v>37</v>
+      </c>
+      <c r="AZ34">
+        <v>24</v>
+      </c>
+      <c r="BA34">
+        <v>2</v>
+      </c>
+      <c r="BB34">
+        <v>17</v>
+      </c>
+      <c r="BC34">
+        <v>10</v>
+      </c>
+      <c r="BD34">
+        <v>24</v>
+      </c>
+      <c r="BE34">
+        <v>49</v>
+      </c>
+      <c r="BF34">
+        <v>11</v>
+      </c>
+      <c r="BG34">
+        <v>43</v>
+      </c>
+      <c r="BH34">
+        <v>71</v>
+      </c>
+      <c r="BI34">
+        <v>3</v>
+      </c>
+      <c r="BJ34">
+        <v>25</v>
+      </c>
+      <c r="BK34">
+        <v>6391</v>
+      </c>
+      <c r="BL34">
+        <v>3420</v>
+      </c>
+      <c r="BM34">
+        <v>65</v>
+      </c>
+      <c r="BN34">
+        <v>63</v>
+      </c>
+      <c r="BO34">
+        <v>20</v>
+      </c>
+      <c r="BP34">
+        <v>151</v>
+      </c>
+      <c r="BQ34">
+        <v>40</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>58</v>
+      </c>
+      <c r="BT34">
+        <v>5</v>
+      </c>
+      <c r="BU34">
+        <v>10</v>
+      </c>
+      <c r="BV34">
+        <v>36</v>
+      </c>
+      <c r="BW34">
+        <v>56</v>
+      </c>
+      <c r="BX34">
+        <v>23</v>
+      </c>
+      <c r="BY34">
+        <v>1</v>
+      </c>
+      <c r="BZ34">
+        <v>66</v>
+      </c>
+      <c r="CA34">
+        <v>12</v>
+      </c>
+      <c r="CB34">
+        <v>9</v>
+      </c>
+      <c r="CC34">
+        <v>27</v>
+      </c>
+      <c r="CD34">
+        <v>27</v>
+      </c>
+      <c r="CE34">
+        <v>41</v>
+      </c>
+      <c r="CF34">
+        <v>62</v>
+      </c>
+      <c r="CG34">
+        <v>22</v>
+      </c>
+      <c r="CH34">
+        <v>38</v>
+      </c>
+      <c r="CI34">
+        <v>3</v>
+      </c>
+      <c r="CJ34">
+        <v>45</v>
+      </c>
+      <c r="CK34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>43</v>
+      </c>
+      <c r="H35">
+        <v>43</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>29</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+      <c r="R35">
+        <v>56</v>
+      </c>
+      <c r="S35">
+        <v>85</v>
+      </c>
+      <c r="T35">
+        <v>19</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>26</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>57</v>
+      </c>
+      <c r="Y35">
+        <v>19</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>69</v>
+      </c>
+      <c r="AB35">
+        <v>43</v>
+      </c>
+      <c r="AC35">
+        <v>24</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>2871</v>
+      </c>
+      <c r="AF35">
+        <v>638</v>
+      </c>
+      <c r="AG35">
+        <v>28</v>
+      </c>
+      <c r="AI35">
+        <v>9</v>
+      </c>
+      <c r="AJ35">
+        <v>207</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+      <c r="AL35">
+        <v>42</v>
+      </c>
+      <c r="AM35">
+        <v>9</v>
+      </c>
+      <c r="AN35">
+        <v>14</v>
+      </c>
+      <c r="AO35">
+        <v>44</v>
+      </c>
+      <c r="AP35">
+        <v>22</v>
+      </c>
+      <c r="AQ35">
+        <v>20</v>
+      </c>
+      <c r="AR35">
+        <v>24</v>
+      </c>
+      <c r="AS35">
+        <v>14</v>
+      </c>
+      <c r="AT35">
+        <v>8</v>
+      </c>
+      <c r="AU35">
+        <v>12</v>
+      </c>
+      <c r="AV35">
+        <v>43</v>
+      </c>
+      <c r="AW35">
+        <v>23</v>
+      </c>
+      <c r="AX35">
+        <v>167</v>
+      </c>
+      <c r="AY35">
+        <v>38</v>
+      </c>
+      <c r="AZ35">
+        <v>12</v>
+      </c>
+      <c r="BA35">
+        <v>12</v>
+      </c>
+      <c r="BB35">
+        <v>12</v>
+      </c>
+      <c r="BC35">
+        <v>2</v>
+      </c>
+      <c r="BD35">
+        <v>31</v>
+      </c>
+      <c r="BE35">
+        <v>42</v>
+      </c>
+      <c r="BF35">
+        <v>7</v>
+      </c>
+      <c r="BG35">
+        <v>53</v>
+      </c>
+      <c r="BH35">
+        <v>70</v>
+      </c>
+      <c r="BI35">
+        <v>3</v>
+      </c>
+      <c r="BJ35">
+        <v>8</v>
+      </c>
+      <c r="BK35">
+        <v>6198</v>
+      </c>
+      <c r="BL35">
+        <v>3327</v>
+      </c>
+      <c r="BM35">
+        <v>65</v>
+      </c>
+      <c r="BN35">
+        <v>85</v>
+      </c>
+      <c r="BO35">
+        <v>35</v>
+      </c>
+      <c r="BP35">
+        <v>161</v>
+      </c>
+      <c r="BQ35">
+        <v>22</v>
+      </c>
+      <c r="BR35">
+        <v>1</v>
+      </c>
+      <c r="BS35">
+        <v>59</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>35</v>
+      </c>
+      <c r="BV35">
+        <v>33</v>
+      </c>
+      <c r="BW35">
+        <v>61</v>
+      </c>
+      <c r="BX35">
+        <v>34</v>
+      </c>
+      <c r="BY35">
+        <v>9</v>
+      </c>
+      <c r="BZ35">
+        <v>69</v>
+      </c>
+      <c r="CA35">
+        <v>13</v>
+      </c>
+      <c r="CB35">
+        <v>5</v>
+      </c>
+      <c r="CC35">
+        <v>24</v>
+      </c>
+      <c r="CD35">
+        <v>33</v>
+      </c>
+      <c r="CE35">
+        <v>23</v>
+      </c>
+      <c r="CF35">
+        <v>58</v>
+      </c>
+      <c r="CG35">
+        <v>20</v>
+      </c>
+      <c r="CH35">
+        <v>42</v>
+      </c>
+      <c r="CI35">
+        <v>2</v>
+      </c>
+      <c r="CJ35">
+        <v>27</v>
+      </c>
+      <c r="CK35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>62</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>38</v>
+      </c>
+      <c r="Q36">
+        <v>39</v>
+      </c>
+      <c r="R36">
+        <v>67</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>13</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>35</v>
+      </c>
+      <c r="W36">
+        <v>22</v>
+      </c>
+      <c r="X36">
+        <v>51</v>
+      </c>
+      <c r="Y36">
+        <v>47</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>65</v>
+      </c>
+      <c r="AB36">
+        <v>38</v>
+      </c>
+      <c r="AC36">
+        <v>26</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>3075</v>
+      </c>
+      <c r="AF36">
+        <v>523</v>
+      </c>
+      <c r="AG36">
+        <v>67</v>
+      </c>
+      <c r="AI36">
+        <v>18</v>
+      </c>
+      <c r="AJ36">
+        <v>89</v>
+      </c>
+      <c r="AK36">
+        <v>10</v>
+      </c>
+      <c r="AL36">
+        <v>60</v>
+      </c>
+      <c r="AM36">
+        <v>11</v>
+      </c>
+      <c r="AN36">
+        <v>65</v>
+      </c>
+      <c r="AO36">
+        <v>53</v>
+      </c>
+      <c r="AP36">
+        <v>39</v>
+      </c>
+      <c r="AQ36">
+        <v>17</v>
+      </c>
+      <c r="AR36">
+        <v>45</v>
+      </c>
+      <c r="AS36">
+        <v>4</v>
+      </c>
+      <c r="AT36">
+        <v>8</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>61</v>
+      </c>
+      <c r="AW36">
+        <v>18</v>
+      </c>
+      <c r="AX36">
+        <v>153</v>
+      </c>
+      <c r="AY36">
+        <v>43</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>7</v>
+      </c>
+      <c r="BC36">
+        <v>1</v>
+      </c>
+      <c r="BD36">
+        <v>38</v>
+      </c>
+      <c r="BE36">
+        <v>32</v>
+      </c>
+      <c r="BF36">
+        <v>7</v>
+      </c>
+      <c r="BG36">
+        <v>148</v>
+      </c>
+      <c r="BH36">
+        <v>65</v>
+      </c>
+      <c r="BI36">
+        <v>1</v>
+      </c>
+      <c r="BJ36">
+        <v>22</v>
+      </c>
+      <c r="BK36">
+        <v>6411</v>
+      </c>
+      <c r="BL36">
+        <v>3336</v>
+      </c>
+      <c r="BM36">
+        <v>64</v>
+      </c>
+      <c r="BN36">
+        <v>101</v>
+      </c>
+      <c r="BO36">
+        <v>8</v>
+      </c>
+      <c r="BP36">
+        <v>198</v>
+      </c>
+      <c r="BQ36">
+        <v>32</v>
+      </c>
+      <c r="BR36">
+        <v>1</v>
+      </c>
+      <c r="BS36">
+        <v>85</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>45</v>
+      </c>
+      <c r="BV36">
+        <v>37</v>
+      </c>
+      <c r="BW36">
+        <v>33</v>
+      </c>
+      <c r="BX36">
+        <v>9</v>
+      </c>
+      <c r="BY36">
+        <v>5</v>
+      </c>
+      <c r="BZ36">
+        <v>70</v>
+      </c>
+      <c r="CA36">
+        <v>5</v>
+      </c>
+      <c r="CB36">
+        <v>5</v>
+      </c>
+      <c r="CC36">
+        <v>29</v>
+      </c>
+      <c r="CD36">
+        <v>28</v>
+      </c>
+      <c r="CE36">
+        <v>41</v>
+      </c>
+      <c r="CF36">
+        <v>48</v>
+      </c>
+      <c r="CG36">
+        <v>18</v>
+      </c>
+      <c r="CH36">
+        <v>39</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
+        <v>12</v>
+      </c>
+      <c r="CK36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>28</v>
+      </c>
+      <c r="G37">
+        <v>115</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>39</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>31</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>45</v>
+      </c>
+      <c r="Q37">
+        <v>23</v>
+      </c>
+      <c r="R37">
+        <v>66</v>
+      </c>
+      <c r="S37">
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <v>16</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>43</v>
+      </c>
+      <c r="W37">
+        <v>13</v>
+      </c>
+      <c r="X37">
+        <v>63</v>
+      </c>
+      <c r="Y37">
+        <v>35</v>
+      </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>68</v>
+      </c>
+      <c r="AB37">
+        <v>53</v>
+      </c>
+      <c r="AC37">
+        <v>28</v>
+      </c>
+      <c r="AD37">
+        <v>7</v>
+      </c>
+      <c r="AE37">
+        <v>2220</v>
+      </c>
+      <c r="AF37">
+        <v>686</v>
+      </c>
+      <c r="AG37">
+        <v>70</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>131</v>
+      </c>
+      <c r="AK37">
+        <v>12</v>
+      </c>
+      <c r="AL37">
+        <v>29</v>
+      </c>
+      <c r="AM37">
+        <v>5</v>
+      </c>
+      <c r="AN37">
+        <v>37</v>
+      </c>
+      <c r="AO37">
+        <v>38</v>
+      </c>
+      <c r="AP37">
+        <v>42</v>
+      </c>
+      <c r="AQ37">
+        <v>10</v>
+      </c>
+      <c r="AR37">
+        <v>20</v>
+      </c>
+      <c r="AS37">
+        <v>14</v>
+      </c>
+      <c r="AT37">
+        <v>4</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>60</v>
+      </c>
+      <c r="AW37">
+        <v>18</v>
+      </c>
+      <c r="AX37">
+        <v>84</v>
+      </c>
+      <c r="AY37">
+        <v>46</v>
+      </c>
+      <c r="AZ37">
+        <v>16</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>14</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>35</v>
+      </c>
+      <c r="BE37">
+        <v>67</v>
+      </c>
+      <c r="BF37">
+        <v>17</v>
+      </c>
+      <c r="BG37">
+        <v>121</v>
+      </c>
+      <c r="BH37">
+        <v>55</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>22</v>
+      </c>
+      <c r="BK37">
+        <v>5841</v>
+      </c>
+      <c r="BL37">
+        <v>3621</v>
+      </c>
+      <c r="BM37">
+        <v>86</v>
+      </c>
+      <c r="BN37">
+        <v>52</v>
+      </c>
+      <c r="BO37">
+        <v>55</v>
+      </c>
+      <c r="BP37">
+        <v>290</v>
+      </c>
+      <c r="BQ37">
+        <v>33</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>90</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>34</v>
+      </c>
+      <c r="BV37">
+        <v>28</v>
+      </c>
+      <c r="BW37">
+        <v>44</v>
+      </c>
+      <c r="BX37">
+        <v>11</v>
+      </c>
+      <c r="BY37">
+        <v>6</v>
+      </c>
+      <c r="BZ37">
+        <v>90</v>
+      </c>
+      <c r="CA37">
+        <v>16</v>
+      </c>
+      <c r="CB37">
+        <v>5</v>
+      </c>
+      <c r="CC37">
+        <v>19</v>
+      </c>
+      <c r="CD37">
+        <v>31</v>
+      </c>
+      <c r="CE37">
+        <v>28</v>
+      </c>
+      <c r="CF37">
+        <v>19</v>
+      </c>
+      <c r="CG37">
+        <v>18</v>
+      </c>
+      <c r="CH37">
+        <v>37</v>
+      </c>
+      <c r="CI37">
+        <v>0</v>
+      </c>
+      <c r="CJ37">
+        <v>22</v>
+      </c>
+      <c r="CK37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>28</v>
+      </c>
+      <c r="G38">
+        <v>118</v>
+      </c>
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>31</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>32</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+      <c r="R38">
+        <v>113</v>
+      </c>
+      <c r="S38">
+        <v>24</v>
+      </c>
+      <c r="T38">
+        <v>22</v>
+      </c>
+      <c r="U38">
+        <v>12</v>
+      </c>
+      <c r="V38">
+        <v>27</v>
+      </c>
+      <c r="W38">
+        <v>18</v>
+      </c>
+      <c r="X38">
+        <v>66</v>
+      </c>
+      <c r="Y38">
+        <v>57</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>68</v>
+      </c>
+      <c r="AB38">
+        <v>51</v>
+      </c>
+      <c r="AC38">
+        <v>31</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>3093</v>
+      </c>
+      <c r="AF38">
+        <v>793</v>
+      </c>
+      <c r="AG38">
+        <v>101</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>150</v>
+      </c>
+      <c r="AK38">
+        <v>13</v>
+      </c>
+      <c r="AL38">
+        <v>35</v>
+      </c>
+      <c r="AM38">
+        <v>10</v>
+      </c>
+      <c r="AN38">
+        <v>27</v>
+      </c>
+      <c r="AO38">
+        <v>27</v>
+      </c>
+      <c r="AP38">
+        <v>40</v>
+      </c>
+      <c r="AQ38">
+        <v>19</v>
+      </c>
+      <c r="AR38">
+        <v>36</v>
+      </c>
+      <c r="AS38">
+        <v>7</v>
+      </c>
+      <c r="AT38">
+        <v>9</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>75</v>
+      </c>
+      <c r="AW38">
+        <v>26</v>
+      </c>
+      <c r="AX38">
+        <v>158</v>
+      </c>
+      <c r="AY38">
+        <v>43</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>10</v>
+      </c>
+      <c r="BC38">
+        <v>10</v>
+      </c>
+      <c r="BD38">
+        <v>31</v>
+      </c>
+      <c r="BE38">
+        <v>39</v>
+      </c>
+      <c r="BF38">
+        <v>24</v>
+      </c>
+      <c r="BG38">
+        <v>93</v>
+      </c>
+      <c r="BH38">
+        <v>71</v>
+      </c>
+      <c r="BI38">
+        <v>2</v>
+      </c>
+      <c r="BJ38">
+        <v>4</v>
+      </c>
+      <c r="BK38">
+        <v>7099</v>
+      </c>
+      <c r="BL38">
+        <v>4006</v>
+      </c>
+      <c r="BM38">
+        <v>79</v>
+      </c>
+      <c r="BN38">
+        <v>40</v>
+      </c>
+      <c r="BO38">
+        <v>40</v>
+      </c>
+      <c r="BP38">
+        <v>336</v>
+      </c>
+      <c r="BQ38">
+        <v>46</v>
+      </c>
+      <c r="BR38">
+        <v>1</v>
+      </c>
+      <c r="BS38">
+        <v>74</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>26</v>
+      </c>
+      <c r="BV38">
+        <v>43</v>
+      </c>
+      <c r="BW38">
+        <v>75</v>
+      </c>
+      <c r="BX38">
+        <v>17</v>
+      </c>
+      <c r="BY38">
+        <v>2</v>
+      </c>
+      <c r="BZ38">
+        <v>92</v>
+      </c>
+      <c r="CA38">
+        <v>15</v>
+      </c>
+      <c r="CB38">
+        <v>11</v>
+      </c>
+      <c r="CC38">
+        <v>27</v>
+      </c>
+      <c r="CD38">
+        <v>38</v>
+      </c>
+      <c r="CE38">
+        <v>21</v>
+      </c>
+      <c r="CF38">
+        <v>67</v>
+      </c>
+      <c r="CG38">
+        <v>20</v>
+      </c>
+      <c r="CH38">
+        <v>47</v>
+      </c>
+      <c r="CI38">
+        <v>1</v>
+      </c>
+      <c r="CJ38">
+        <v>54</v>
+      </c>
+      <c r="CK38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>88</v>
+      </c>
+      <c r="H39">
+        <v>46</v>
+      </c>
+      <c r="I39">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>36</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>44</v>
+      </c>
+      <c r="O39">
+        <v>18</v>
+      </c>
+      <c r="P39">
+        <v>43</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+      <c r="R39">
+        <v>121</v>
+      </c>
+      <c r="S39">
+        <v>16</v>
+      </c>
+      <c r="T39">
+        <v>46</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>18</v>
+      </c>
+      <c r="W39">
+        <v>16</v>
+      </c>
+      <c r="X39">
+        <v>66</v>
+      </c>
+      <c r="Y39">
+        <v>48</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>66</v>
+      </c>
+      <c r="AB39">
+        <v>44</v>
+      </c>
+      <c r="AC39">
+        <v>31</v>
+      </c>
+      <c r="AD39">
+        <v>9</v>
+      </c>
+      <c r="AE39">
+        <v>3561</v>
+      </c>
+      <c r="AF39">
+        <v>797</v>
+      </c>
+      <c r="AG39">
+        <v>86</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>179</v>
+      </c>
+      <c r="AK39">
+        <v>18</v>
+      </c>
+      <c r="AL39">
+        <v>55</v>
+      </c>
+      <c r="AM39">
+        <v>10</v>
+      </c>
+      <c r="AN39">
+        <v>49</v>
+      </c>
+      <c r="AO39">
+        <v>37</v>
+      </c>
+      <c r="AP39">
+        <v>44</v>
+      </c>
+      <c r="AQ39">
+        <v>24</v>
+      </c>
+      <c r="AR39">
+        <v>27</v>
+      </c>
+      <c r="AS39">
+        <v>4</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
+        <v>77</v>
+      </c>
+      <c r="AW39">
+        <v>26</v>
+      </c>
+      <c r="AX39">
+        <v>164</v>
+      </c>
+      <c r="AY39">
+        <v>47</v>
+      </c>
+      <c r="AZ39">
+        <v>39</v>
+      </c>
+      <c r="BA39">
+        <v>8</v>
+      </c>
+      <c r="BB39">
+        <v>28</v>
+      </c>
+      <c r="BC39">
+        <v>3</v>
+      </c>
+      <c r="BD39">
+        <v>31</v>
+      </c>
+      <c r="BE39">
+        <v>30</v>
+      </c>
+      <c r="BF39">
+        <v>22</v>
+      </c>
+      <c r="BG39">
+        <v>73</v>
+      </c>
+      <c r="BH39">
+        <v>71</v>
+      </c>
+      <c r="BI39">
+        <v>6</v>
+      </c>
+      <c r="BJ39">
+        <v>25</v>
+      </c>
+      <c r="BK39">
+        <v>7933</v>
+      </c>
+      <c r="BM39">
+        <v>83</v>
+      </c>
+      <c r="BN39">
+        <v>43</v>
+      </c>
+      <c r="BO39">
+        <v>25</v>
+      </c>
+      <c r="BP39">
+        <v>349</v>
+      </c>
+      <c r="BQ39">
+        <v>49</v>
+      </c>
+      <c r="BR39">
+        <v>1</v>
+      </c>
+      <c r="BS39">
+        <v>232</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>26</v>
+      </c>
+      <c r="BV39">
+        <v>89</v>
+      </c>
+      <c r="BW39">
+        <v>63</v>
+      </c>
+      <c r="BX39">
+        <v>29</v>
+      </c>
+      <c r="BY39">
+        <v>8</v>
+      </c>
+      <c r="BZ39">
+        <v>82</v>
+      </c>
+      <c r="CA39">
+        <v>7</v>
+      </c>
+      <c r="CB39">
+        <v>9</v>
+      </c>
+      <c r="CC39">
+        <v>23</v>
+      </c>
+      <c r="CD39">
+        <v>30</v>
+      </c>
+      <c r="CE39">
+        <v>18</v>
+      </c>
+      <c r="CF39">
+        <v>44</v>
+      </c>
+      <c r="CG39">
+        <v>19</v>
+      </c>
+      <c r="CH39">
+        <v>41</v>
+      </c>
+      <c r="CI39">
+        <v>2</v>
+      </c>
+      <c r="CJ39">
+        <v>51</v>
+      </c>
+      <c r="CK39">
+        <v>64</v>
+      </c>
+      <c r="CL39">
+        <v>7</v>
+      </c>
+      <c r="CM39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>